--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>destroying</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,70 +136,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>…</t>
@@ -563,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -682,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -732,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8846153846153846</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>0.7017543859649122</v>
+      </c>
+      <c r="L8">
         <v>40</v>
       </c>
-      <c r="K8">
-        <v>0.6933333333333334</v>
-      </c>
-      <c r="L8">
-        <v>52</v>
-      </c>
       <c r="M8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,16 +968,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,38 +997,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L10">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.68</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,10 +1100,10 @@
         <v>0.75</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.5185185185185185</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.675</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5942028985507246</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.3888888888888889</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,16 +1318,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5789473684210527</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.3050847457627119</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.2404371584699453</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L18">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>834</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2153846153846154</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5416666666666666</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.1851851851851852</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5319148936170213</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.1475409836065574</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -1600,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.1294117647058824</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L22">
         <v>11</v>
@@ -1624,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.1263157894736842</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1700,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L24">
         <v>15</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.04814814814814815</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
       <c r="M24">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>514</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3928571428571428</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1750,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.03886925795053003</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="L25">
         <v>11</v>
@@ -1774,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>272</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1782,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1800,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.02857142857142857</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>306</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1832,13 +1847,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1923076923076923</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1850,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.02710843373493976</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1874,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>646</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1882,37 +1897,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04377104377104377</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.02435064935064935</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1924,15 +1939,39 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>601</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>0.14</v>
+      </c>
+      <c r="F29">
+        <v>0.86</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>285</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.01900921658986175</v>
+        <v>0.04969879518072289</v>
       </c>
       <c r="L29">
         <v>33</v>
@@ -1950,33 +1989,137 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1703</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.01666666666666667</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>0.03084415584415584</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>0.02932551319648094</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>0.0195852534562212</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L34">
         <v>13</v>
       </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>0.93</v>
-      </c>
-      <c r="O30">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>767</v>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
